--- a/ExcelExamples/GeneralSwap.xlsx
+++ b/ExcelExamples/GeneralSwap.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Product And Value" sheetId="1" r:id="rId1"/>
-    <sheet name="Curves" sheetId="2" r:id="rId2"/>
+    <sheet name="Fixed CCIRS" sheetId="1" r:id="rId1"/>
+    <sheet name="Amortising Swap" sheetId="3" r:id="rId2"/>
+    <sheet name="FX Forward or FX Swap" sheetId="4" r:id="rId3"/>
+    <sheet name="Curves and Model" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" calcOnSave="0"/>
+  <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -71,9 +73,6 @@
     <t>fxForecastCurves</t>
   </si>
   <si>
-    <t>valueResults</t>
-  </si>
-  <si>
     <t>model</t>
   </si>
   <si>
@@ -111,14 +110,75 @@
   </si>
   <si>
     <t>QSA.Value</t>
+  </si>
+  <si>
+    <t>floatLeg</t>
+  </si>
+  <si>
+    <t>floatingIndex</t>
+  </si>
+  <si>
+    <t>JIBAR3M</t>
+  </si>
+  <si>
+    <t>resetDates</t>
+  </si>
+  <si>
+    <t>spreads</t>
+  </si>
+  <si>
+    <t>fixedLeg</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>ccirsValueResults</t>
+  </si>
+  <si>
+    <t>amortSwapValueResults</t>
+  </si>
+  <si>
+    <t>QSA.CreateFloatLeg</t>
+  </si>
+  <si>
+    <t>fxSwap</t>
+  </si>
+  <si>
+    <t>amounts</t>
+  </si>
+  <si>
+    <t>currencies</t>
+  </si>
+  <si>
+    <t>QSA.CreateCashLeg</t>
+  </si>
+  <si>
+    <t>fxSwapValueResults</t>
+  </si>
+  <si>
+    <t>discountCuve</t>
+  </si>
+  <si>
+    <t>floatingRateIndex</t>
+  </si>
+  <si>
+    <t>JIBAR6M</t>
+  </si>
+  <si>
+    <t>LIBOR3M</t>
+  </si>
+  <si>
+    <t>QSA.CreateRateForecastCurveFromDiscount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -143,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +234,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -188,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -200,7 +266,9 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,15 +599,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J37"/>
+  <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
@@ -551,7 +619,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -849,109 +917,70 @@
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="str">
         <f>_xll.QSA.CreateFixedLeg(C3,C4,B7:B14,C7:C14,D7:D14,E7:E14)</f>
-        <v>fixedLegZAR0001.06:36:39-68</v>
+        <v>fixedLegZAR0001.08:29:00-70</v>
       </c>
       <c r="G16" s="6" t="str">
         <f>_xll.QSA.CreateFixedLeg(H3,H4,G7:G14,H7:H14,I7:I14,J7:J14)</f>
-        <v>fixedLegUSD0001.06:36:39-70</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B19" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>fixedLegUSD0001.08:29:00-71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="10" t="str">
-        <f>Curves!B10</f>
-        <v>ZARDiscount.06:36:39-65</v>
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C22" s="10" t="str">
+        <f>B16</f>
+        <v>fixedLegZAR0001.08:29:00-70</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C23" s="10" t="str">
-        <f>Curves!L10</f>
-        <v>USDZARForwards.06:36:39-67</v>
+        <f>G16</f>
+        <v>fixedLegUSD0001.08:29:00-71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3">
+        <v>42636</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="str">
-        <f>_xll.QSA.CreateCurveModel(C20,C21,,C23)</f>
-        <v>curveModel.06:36:39-69</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B28" s="9" t="s">
-        <v>31</v>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="10" t="str">
+        <f ca="1">'Curves and Model'!B28</f>
+        <v>curveModel.08:29:00-72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="str">
+        <f ca="1">_xll.QSA.Value(C21,C22:C23,C24,C25)</f>
+        <v>ccirsValueResults.08:29:00-75</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="10" t="str">
-        <f>B16</f>
-        <v>fixedLegZAR0001.06:36:39-68</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="10" t="str">
-        <f>G16</f>
-        <v>fixedLegUSD0001.06:36:39-70</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="3">
-        <v>42636</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="10" t="str">
-        <f>B25</f>
-        <v>curveModel.06:36:39-69</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="str">
-        <f>_xll.QSA.Value(C29,C30:C31,C32,C33)</f>
-        <v>valueResults.06:36:39-71</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="11">
-        <f>_xll.QSA.GetResults(B35,"value")</f>
+        <v>37</v>
+      </c>
+      <c r="C29" s="12">
+        <f ca="1">_xll.QSA.GetResults(B27,"value")</f>
         <v>-179484.52557973986</v>
       </c>
     </row>
@@ -962,18 +991,549 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M10"/>
+  <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="7" max="7" width="5.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>42639</v>
+      </c>
+      <c r="C7" s="3">
+        <f>EDATE(B7,3)</f>
+        <v>42730</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <f>(C7-B7)/365</f>
+        <v>0.24931506849315069</v>
+      </c>
+      <c r="H7" s="2">
+        <f>-D7</f>
+        <v>-1000000</v>
+      </c>
+      <c r="I7" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <f>C7</f>
+        <v>42730</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ref="C8:C14" si="0">EDATE(B8,3)</f>
+        <v>42820</v>
+      </c>
+      <c r="D8" s="2">
+        <f>D7-125000</f>
+        <v>875000</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" ref="F8:F14" si="1">(C8-B8)/365</f>
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8:H14" si="2">-D8</f>
+        <v>-875000</v>
+      </c>
+      <c r="I8" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <f t="shared" ref="B9:B14" si="3">C8</f>
+        <v>42820</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>42912</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9:D14" si="4">D8-125000</f>
+        <v>750000</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="1"/>
+        <v>0.25205479452054796</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>-750000</v>
+      </c>
+      <c r="I9" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <f t="shared" si="3"/>
+        <v>42912</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>43004</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="4"/>
+        <v>625000</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.25205479452054796</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>-625000</v>
+      </c>
+      <c r="I10" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <f t="shared" si="3"/>
+        <v>43004</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>43095</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="4"/>
+        <v>500000</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="1"/>
+        <v>0.24931506849315069</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>-500000</v>
+      </c>
+      <c r="I11" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <f t="shared" si="3"/>
+        <v>43095</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>43185</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="4"/>
+        <v>375000</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>-375000</v>
+      </c>
+      <c r="I12" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <f t="shared" si="3"/>
+        <v>43185</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>43277</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="4"/>
+        <v>250000</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="1"/>
+        <v>0.25205479452054796</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>-250000</v>
+      </c>
+      <c r="I13" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <f t="shared" si="3"/>
+        <v>43277</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>43369</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="4"/>
+        <v>125000</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="1"/>
+        <v>0.25205479452054796</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="2"/>
+        <v>-125000</v>
+      </c>
+      <c r="I14" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="str">
+        <f>_xll.QSA.CreateFloatLeg(C2,C3,C4,B7:B14,C7:C14,D7:D14,E7:E14,F7:F14)</f>
+        <v>floatLeg.08:29:00-65</v>
+      </c>
+      <c r="I17" s="6" t="str">
+        <f>_xll.QSA.CreateFixedLeg(I2,I3,C7:C14,H7:H14,I7:I14,F7:F14)</f>
+        <v>fixedLeg.08:29:00-61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="10" t="str">
+        <f>B17</f>
+        <v>floatLeg.08:29:00-65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="str">
+        <f>I17</f>
+        <v>fixedLeg.08:29:00-61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3">
+        <v>42636</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="10" t="str">
+        <f ca="1">'Curves and Model'!B28</f>
+        <v>curveModel.08:29:00-72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="str">
+        <f ca="1">_xll.QSA.Value(C21,C22:C23,C24,C25)</f>
+        <v>amortSwapValueResults.08:29:00-74</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="12">
+        <f ca="1">_xll.QSA.GetResults(B27,"value")</f>
+        <v>3341.7881313855064</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>42636</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-13660000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>42636</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>43001</v>
+      </c>
+      <c r="C7" s="7">
+        <v>14553000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>43001</v>
+      </c>
+      <c r="C8" s="7">
+        <v>-1000000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B11" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="str">
+        <f>_xll.QSA.CreateCashLeg(C2,B5:B8,C5:C8,D5:D8)</f>
+        <v>fxSwap.08:29:00-60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B14" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="10" t="str">
+        <f>B12</f>
+        <v>fxSwap.08:29:00-60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3">
+        <v>42636</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="10" t="str">
+        <f ca="1">'Curves and Model'!B28</f>
+        <v>curveModel.08:29:00-72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="str">
+        <f ca="1">_xll.QSA.Value(C15,C16,C18,C19)</f>
+        <v>fxSwapValueResults.08:29:00-73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="12">
+        <f ca="1">_xll.QSA.GetResults(B21,"value")</f>
+        <v>341.00622510910034</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31.375" bestFit="1" customWidth="1"/>
@@ -982,7 +1542,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="L2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -996,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="L3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -1028,10 +1588,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>8</v>
@@ -1039,7 +1599,7 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>2</v>
@@ -1065,7 +1625,7 @@
         <v>5</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2">
         <v>13.66</v>
@@ -1091,11 +1651,11 @@
         <v>0.01</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7" s="10" t="str">
         <f>H10</f>
-        <v>USDDiscountAndBasis.06:36:39-64</v>
+        <v>USDDiscountAndBasis.08:29:00-62</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -1118,29 +1678,154 @@
         <v>1.2E-2</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8" s="10" t="str">
         <f>E10</f>
-        <v>ZARBasis.06:36:39-66</v>
+        <v>ZARBasis.08:29:00-64</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(C3,B7:B8,C7:C8,C4)</f>
-        <v>ZARDiscount.06:36:39-65</v>
+        <v>ZARDiscount.08:29:00-63</v>
       </c>
       <c r="E10" s="6" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(F3,E7:E8,F7:F8,F4)</f>
-        <v>ZARBasis.06:36:39-66</v>
+        <v>ZARBasis.08:29:00-64</v>
       </c>
       <c r="H10" s="6" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(I3,H7:H8,I7:I8,I4)</f>
-        <v>USDDiscountAndBasis.06:36:39-64</v>
+        <v>USDDiscountAndBasis.08:29:00-62</v>
       </c>
       <c r="L10" s="6" t="str">
         <f>_xll.QSA.CreateFXForecastCurve(M3,M4,M5,M6,M7,M8)</f>
-        <v>USDZARForwards.06:36:39-67</v>
+        <v>USDZARForwards.08:29:00-69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="str">
+        <f>"forecast"&amp;C15</f>
+        <v>forecastJIBAR3M</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="10" t="str">
+        <f>B10</f>
+        <v>ZARDiscount.08:29:00-63</v>
+      </c>
+      <c r="E15" s="6" t="str">
+        <f>_xll.QSA.CreateRateForecastCurveFromDiscount(B15,C15,D15)</f>
+        <v>forecastJIBAR3M.08:29:00-68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="str">
+        <f t="shared" ref="B16:B17" si="0">"forecast"&amp;C16</f>
+        <v>forecastJIBAR6M</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="10" t="str">
+        <f>B10</f>
+        <v>ZARDiscount.08:29:00-63</v>
+      </c>
+      <c r="E16" s="6" t="str">
+        <f>_xll.QSA.CreateRateForecastCurveFromDiscount(B16,C16,D16)</f>
+        <v>forecastJIBAR6M.08:29:00-67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>forecastLIBOR3M</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="10" t="str">
+        <f>H10</f>
+        <v>USDDiscountAndBasis.08:29:00-62</v>
+      </c>
+      <c r="E17" s="6" t="str">
+        <f>_xll.QSA.CreateRateForecastCurveFromDiscount(B17,C17,D17)</f>
+        <v>forecastLIBOR3M.08:29:00-66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="10" t="str">
+        <f>'Curves and Model'!B10</f>
+        <v>ZARDiscount.08:29:00-63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="10" t="str">
+        <f>E15</f>
+        <v>forecastJIBAR3M.08:29:00-68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="str">
+        <f>E16</f>
+        <v>forecastJIBAR6M.08:29:00-67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="str">
+        <f>E17</f>
+        <v>forecastLIBOR3M.08:29:00-66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="10" t="str">
+        <f>'Curves and Model'!L10</f>
+        <v>USDZARForwards.08:29:00-69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="str">
+        <f ca="1">_xll.QSA.CreateCurveModel(C21,C22,C23:C25,C26)</f>
+        <v>curveModel.08:29:34-76</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelExamples/GeneralSwap.xlsx
+++ b/ExcelExamples/GeneralSwap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="Fixed CCIRS" sheetId="1" r:id="rId1"/>
@@ -601,20 +601,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
@@ -997,10 +997,10 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="7" max="7" width="5.375" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -1376,15 +1376,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -1528,16 +1528,16 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">

--- a/ExcelExamples/GeneralSwap.xlsx
+++ b/ExcelExamples/GeneralSwap.xlsx
@@ -917,11 +917,11 @@
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="str">
         <f>_xll.QSA.CreateFixedLeg(C3,C4,B7:B14,C7:C14,D7:D14,E7:E14)</f>
-        <v>fixedLegZAR0001.08:29:00-70</v>
+        <v>fixedLegZAR0001.19:30:44-16</v>
       </c>
       <c r="G16" s="6" t="str">
         <f>_xll.QSA.CreateFixedLeg(H3,H4,G7:G14,H7:H14,I7:I14,J7:J14)</f>
-        <v>fixedLegUSD0001.08:29:00-71</v>
+        <v>fixedLegUSD0001.19:30:44-17</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="21" x14ac:dyDescent="0.35">
@@ -943,13 +943,13 @@
       </c>
       <c r="C22" s="10" t="str">
         <f>B16</f>
-        <v>fixedLegZAR0001.08:29:00-70</v>
+        <v>fixedLegZAR0001.19:30:44-16</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="str">
         <f>G16</f>
-        <v>fixedLegUSD0001.08:29:00-71</v>
+        <v>fixedLegUSD0001.19:30:44-17</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -965,14 +965,14 @@
         <v>18</v>
       </c>
       <c r="C25" s="10" t="str">
-        <f ca="1">'Curves and Model'!B28</f>
-        <v>curveModel.08:29:00-72</v>
+        <f>'Curves and Model'!B28</f>
+        <v>curveModel.19:30:44-18</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="str">
-        <f ca="1">_xll.QSA.Value(C21,C22:C23,C24,C25)</f>
-        <v>ccirsValueResults.08:29:00-75</v>
+        <f>_xll.QSA.Value(C21,C22:C23,C24,C25)</f>
+        <v>ccirsValueResults.19:30:44-20</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
         <v>37</v>
       </c>
       <c r="C29" s="12">
-        <f ca="1">_xll.QSA.GetResults(B27,"value")</f>
+        <f>_xll.QSA.GetResults(B27,"value")</f>
         <v>-179484.52557973986</v>
       </c>
     </row>
@@ -1300,11 +1300,11 @@
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
         <f>_xll.QSA.CreateFloatLeg(C2,C3,C4,B7:B14,C7:C14,D7:D14,E7:E14,F7:F14)</f>
-        <v>floatLeg.08:29:00-65</v>
+        <v>floatLeg.19:30:44-10</v>
       </c>
       <c r="I17" s="6" t="str">
         <f>_xll.QSA.CreateFixedLeg(I2,I3,C7:C14,H7:H14,I7:I14,F7:F14)</f>
-        <v>fixedLeg.08:29:00-61</v>
+        <v>fixedLeg.19:30:44-8</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -1326,13 +1326,13 @@
       </c>
       <c r="C22" s="10" t="str">
         <f>B17</f>
-        <v>floatLeg.08:29:00-65</v>
+        <v>floatLeg.19:30:44-10</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="str">
         <f>I17</f>
-        <v>fixedLeg.08:29:00-61</v>
+        <v>fixedLeg.19:30:44-8</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -1348,14 +1348,14 @@
         <v>18</v>
       </c>
       <c r="C25" s="10" t="str">
-        <f ca="1">'Curves and Model'!B28</f>
-        <v>curveModel.08:29:00-72</v>
+        <f>'Curves and Model'!B28</f>
+        <v>curveModel.19:30:44-18</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="str">
-        <f ca="1">_xll.QSA.Value(C21,C22:C23,C24,C25)</f>
-        <v>amortSwapValueResults.08:29:00-74</v>
+        <f>_xll.QSA.Value(C21,C22:C23,C24,C25)</f>
+        <v>amortSwapValueResults.19:30:44-21</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -1363,7 +1363,7 @@
         <v>37</v>
       </c>
       <c r="C29" s="12">
-        <f ca="1">_xll.QSA.GetResults(B27,"value")</f>
+        <f>_xll.QSA.GetResults(B27,"value")</f>
         <v>3341.7881313855064</v>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="str">
         <f>_xll.QSA.CreateCashLeg(C2,B5:B8,C5:C8,D5:D8)</f>
-        <v>fxSwap.08:29:00-60</v>
+        <v>fxSwap.19:30:44-5</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.35">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="C16" s="10" t="str">
         <f>B12</f>
-        <v>fxSwap.08:29:00-60</v>
+        <v>fxSwap.19:30:44-5</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -1496,14 +1496,14 @@
         <v>18</v>
       </c>
       <c r="C19" s="10" t="str">
-        <f ca="1">'Curves and Model'!B28</f>
-        <v>curveModel.08:29:00-72</v>
+        <f>'Curves and Model'!B28</f>
+        <v>curveModel.19:30:44-18</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="str">
-        <f ca="1">_xll.QSA.Value(C15,C16,C18,C19)</f>
-        <v>fxSwapValueResults.08:29:00-73</v>
+        <f>_xll.QSA.Value(C15,C16,C18,C19)</f>
+        <v>fxSwapValueResults.19:30:44-19</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
         <v>37</v>
       </c>
       <c r="C23" s="12">
-        <f ca="1">_xll.QSA.GetResults(B21,"value")</f>
+        <f>_xll.QSA.GetResults(B21,"value")</f>
         <v>341.00622510910034</v>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="M7" s="10" t="str">
         <f>H10</f>
-        <v>USDDiscountAndBasis.08:29:00-62</v>
+        <v>USDDiscountAndBasis.19:30:44-11</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -1682,25 +1682,25 @@
       </c>
       <c r="M8" s="10" t="str">
         <f>E10</f>
-        <v>ZARBasis.08:29:00-64</v>
+        <v>ZARBasis.19:30:44-9</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(C3,B7:B8,C7:C8,C4)</f>
-        <v>ZARDiscount.08:29:00-63</v>
+        <v>ZARDiscount.19:30:44-7</v>
       </c>
       <c r="E10" s="6" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(F3,E7:E8,F7:F8,F4)</f>
-        <v>ZARBasis.08:29:00-64</v>
+        <v>ZARBasis.19:30:44-9</v>
       </c>
       <c r="H10" s="6" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(I3,H7:H8,I7:I8,I4)</f>
-        <v>USDDiscountAndBasis.08:29:00-62</v>
+        <v>USDDiscountAndBasis.19:30:44-11</v>
       </c>
       <c r="L10" s="6" t="str">
         <f>_xll.QSA.CreateFXForecastCurve(M3,M4,M5,M6,M7,M8)</f>
-        <v>USDZARForwards.08:29:00-69</v>
+        <v>USDZARForwards.19:30:44-12</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="21" x14ac:dyDescent="0.35">
@@ -1729,11 +1729,11 @@
       </c>
       <c r="D15" s="10" t="str">
         <f>B10</f>
-        <v>ZARDiscount.08:29:00-63</v>
+        <v>ZARDiscount.19:30:44-7</v>
       </c>
       <c r="E15" s="6" t="str">
         <f>_xll.QSA.CreateRateForecastCurveFromDiscount(B15,C15,D15)</f>
-        <v>forecastJIBAR3M.08:29:00-68</v>
+        <v>forecastJIBAR3M.19:30:44-15</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
@@ -1746,11 +1746,11 @@
       </c>
       <c r="D16" s="10" t="str">
         <f>B10</f>
-        <v>ZARDiscount.08:29:00-63</v>
+        <v>ZARDiscount.19:30:44-7</v>
       </c>
       <c r="E16" s="6" t="str">
         <f>_xll.QSA.CreateRateForecastCurveFromDiscount(B16,C16,D16)</f>
-        <v>forecastJIBAR6M.08:29:00-67</v>
+        <v>forecastJIBAR6M.19:30:44-14</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -1763,11 +1763,11 @@
       </c>
       <c r="D17" s="10" t="str">
         <f>H10</f>
-        <v>USDDiscountAndBasis.08:29:00-62</v>
+        <v>USDDiscountAndBasis.19:30:44-11</v>
       </c>
       <c r="E17" s="6" t="str">
         <f>_xll.QSA.CreateRateForecastCurveFromDiscount(B17,C17,D17)</f>
-        <v>forecastLIBOR3M.08:29:00-66</v>
+        <v>forecastLIBOR3M.19:30:44-13</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C22" s="10" t="str">
         <f>'Curves and Model'!B10</f>
-        <v>ZARDiscount.08:29:00-63</v>
+        <v>ZARDiscount.19:30:44-7</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -1798,19 +1798,19 @@
       </c>
       <c r="C23" s="10" t="str">
         <f>E15</f>
-        <v>forecastJIBAR3M.08:29:00-68</v>
+        <v>forecastJIBAR3M.19:30:44-15</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="str">
         <f>E16</f>
-        <v>forecastJIBAR6M.08:29:00-67</v>
+        <v>forecastJIBAR6M.19:30:44-14</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="str">
         <f>E17</f>
-        <v>forecastLIBOR3M.08:29:00-66</v>
+        <v>forecastLIBOR3M.19:30:44-13</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -1819,13 +1819,13 @@
       </c>
       <c r="C26" s="10" t="str">
         <f>'Curves and Model'!L10</f>
-        <v>USDZARForwards.08:29:00-69</v>
+        <v>USDZARForwards.19:30:44-12</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="str">
-        <f ca="1">_xll.QSA.CreateCurveModel(C21,C22,C23:C25,C26)</f>
-        <v>curveModel.08:29:34-76</v>
+        <f>_xll.QSA.CreateCurveModel(C21,C22,C23:C25,C26)</f>
+        <v>curveModel.19:30:44-18</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelExamples/GeneralSwap.xlsx
+++ b/ExcelExamples/GeneralSwap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="10296" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Fixed CCIRS" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="FX Forward or FX Swap" sheetId="4" r:id="rId3"/>
     <sheet name="Curves and Model" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="145621" calcMode="manual" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -82,12 +82,6 @@
     <t>QSA.CreateFXForecastCurve</t>
   </si>
   <si>
-    <t>baseCurrency</t>
-  </si>
-  <si>
-    <t>counterCurrency</t>
-  </si>
-  <si>
     <t>USDZARForwards</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>floatingIndex</t>
   </si>
   <si>
-    <t>JIBAR3M</t>
-  </si>
-  <si>
     <t>resetDates</t>
   </si>
   <si>
@@ -163,13 +154,22 @@
     <t>floatingRateIndex</t>
   </si>
   <si>
-    <t>JIBAR6M</t>
-  </si>
-  <si>
-    <t>LIBOR3M</t>
-  </si>
-  <si>
     <t>QSA.CreateRateForecastCurveFromDiscount</t>
+  </si>
+  <si>
+    <t>ZAR.JIBAR.3M</t>
+  </si>
+  <si>
+    <t>ZAR.JIBAR.6M</t>
+  </si>
+  <si>
+    <t>USD.LIBOR.3M</t>
+  </si>
+  <si>
+    <t>currencyPair</t>
+  </si>
+  <si>
+    <t>USDZAR</t>
   </si>
 </sst>
 </file>
@@ -601,28 +601,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -650,7 +650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -676,7 +676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>42727</v>
       </c>
@@ -704,7 +704,7 @@
         <v>0.24931506849315069</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B14" si="0">EDATE(B7,3)</f>
         <v>42817</v>
@@ -734,7 +734,7 @@
         <v>0.24657534246575341</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>42909</v>
@@ -764,7 +764,7 @@
         <v>0.25205479452054796</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>43001</v>
@@ -794,7 +794,7 @@
         <v>0.25205479452054796</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>43092</v>
@@ -824,7 +824,7 @@
         <v>0.24931506849315069</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>43182</v>
@@ -854,7 +854,7 @@
         <v>0.24657534246575341</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>43274</v>
@@ -884,7 +884,7 @@
         <v>0.25205479452054796</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>43366</v>
@@ -914,45 +914,45 @@
         <v>0.25205479452054796</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="str">
         <f>_xll.QSA.CreateFixedLeg(C3,C4,B7:B14,C7:C14,D7:D14,E7:E14)</f>
-        <v>fixedLegZAR0001.19:30:44-16</v>
+        <v>fixedLegZAR0001.20:59:16-33</v>
       </c>
       <c r="G16" s="6" t="str">
         <f>_xll.QSA.CreateFixedLeg(H3,H4,G7:G14,H7:H14,I7:I14,J7:J14)</f>
-        <v>fixedLegUSD0001.19:30:44-17</v>
+        <v>fixedLegUSD0001.20:59:16-37</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B20" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="10" t="str">
         <f>B16</f>
-        <v>fixedLegZAR0001.19:30:44-16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+        <v>fixedLegZAR0001.20:59:16-33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="str">
         <f>G16</f>
-        <v>fixedLegUSD0001.19:30:44-17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+        <v>fixedLegUSD0001.20:59:16-37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
@@ -960,24 +960,24 @@
         <v>42636</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="10" t="str">
         <f>'Curves and Model'!B28</f>
-        <v>curveModel.19:30:44-18</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+        <v>curveModel.20:59:16-38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="str">
         <f>_xll.QSA.Value(C21,C22:C23,C24,C25)</f>
-        <v>ccirsValueResults.19:30:44-20</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+        <v>ccirsValueResults.20:59:16-41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C29" s="12">
         <f>_xll.QSA.GetResults(B27,"value")</f>
@@ -994,30 +994,30 @@
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1031,18 +1031,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -1051,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>6</v>
@@ -1063,7 +1063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>42639</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f>C7</f>
         <v>42730</v>
@@ -1117,7 +1117,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" ref="B9:B14" si="3">C8</f>
         <v>42820</v>
@@ -1145,7 +1145,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="3"/>
         <v>42912</v>
@@ -1173,7 +1173,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="3"/>
         <v>43004</v>
@@ -1201,7 +1201,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="3"/>
         <v>43095</v>
@@ -1229,7 +1229,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="3"/>
         <v>43185</v>
@@ -1257,7 +1257,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="3"/>
         <v>43277</v>
@@ -1285,57 +1285,57 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
     </row>
     <row r="16" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
         <f>_xll.QSA.CreateFloatLeg(C2,C3,C4,B7:B14,C7:C14,D7:D14,E7:E14,F7:F14)</f>
-        <v>floatLeg.19:30:44-10</v>
+        <v>floatLeg.20:59:16-31</v>
       </c>
       <c r="I17" s="6" t="str">
         <f>_xll.QSA.CreateFixedLeg(I2,I3,C7:C14,H7:H14,I7:I14,F7:F14)</f>
-        <v>fixedLeg.19:30:44-8</v>
+        <v>fixedLeg.20:59:16-29</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B20" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="10" t="str">
         <f>B17</f>
-        <v>floatLeg.19:30:44-10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>floatLeg.20:59:16-31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="str">
         <f>I17</f>
-        <v>fixedLeg.19:30:44-8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>fixedLeg.20:59:16-29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1343,24 +1343,24 @@
         <v>42636</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="10" t="str">
         <f>'Curves and Model'!B28</f>
-        <v>curveModel.19:30:44-18</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>curveModel.20:59:16-38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="str">
         <f>_xll.QSA.Value(C21,C22:C23,C24,C25)</f>
-        <v>amortSwapValueResults.19:30:44-21</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>amortSwapValueResults.20:59:16-39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C29" s="12">
         <f>_xll.QSA.GetResults(B27,"value")</f>
@@ -1380,33 +1380,33 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>42636</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>42636</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>43001</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>43001</v>
       </c>
@@ -1452,38 +1452,38 @@
     </row>
     <row r="11" spans="2:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="str">
         <f>_xll.QSA.CreateCashLeg(C2,B5:B8,C5:C8,D5:D8)</f>
-        <v>fxSwap.19:30:44-5</v>
+        <v>fxSwap.20:59:16-26</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="10" t="str">
         <f>B12</f>
-        <v>fxSwap.19:30:44-5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+        <v>fxSwap.20:59:16-26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1491,24 +1491,24 @@
         <v>42636</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="10" t="str">
         <f>'Curves and Model'!B28</f>
-        <v>curveModel.19:30:44-18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+        <v>curveModel.20:59:16-38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="str">
         <f>_xll.QSA.Value(C15,C16,C18,C19)</f>
-        <v>fxSwapValueResults.19:30:44-19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+        <v>fxSwapValueResults.20:59:16-40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C23" s="12">
         <f>_xll.QSA.GetResults(B21,"value")</f>
@@ -1524,20 +1524,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
@@ -1545,7 +1545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1556,22 +1556,22 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1591,21 +1591,21 @@
         <v>8</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="L5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="2">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1625,13 +1625,14 @@
         <v>5</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="2">
-        <v>13.66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="M6" s="10" t="str">
+        <f>H10</f>
+        <v>USDDiscountAndBasis.20:59:16-27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>42636</v>
       </c>
@@ -1651,14 +1652,14 @@
         <v>0.01</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7" s="10" t="str">
-        <f>H10</f>
-        <v>USDDiscountAndBasis.19:30:44-11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+        <f>E10</f>
+        <v>ZARBasis.20:59:16-30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>46288</v>
       </c>
@@ -1677,97 +1678,90 @@
       <c r="I8" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="10" t="str">
-        <f>E10</f>
-        <v>ZARBasis.19:30:44-9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(C3,B7:B8,C7:C8,C4)</f>
-        <v>ZARDiscount.19:30:44-7</v>
+        <v>ZARDiscount.20:59:16-28</v>
       </c>
       <c r="E10" s="6" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(F3,E7:E8,F7:F8,F4)</f>
-        <v>ZARBasis.19:30:44-9</v>
+        <v>ZARBasis.20:59:16-30</v>
       </c>
       <c r="H10" s="6" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(I3,H7:H8,I7:I8,I4)</f>
-        <v>USDDiscountAndBasis.19:30:44-11</v>
+        <v>USDDiscountAndBasis.20:59:16-27</v>
       </c>
       <c r="L10" s="6" t="str">
-        <f>_xll.QSA.CreateFXForecastCurve(M3,M4,M5,M6,M7,M8)</f>
-        <v>USDZARForwards.19:30:44-12</v>
+        <f>_xll.QSA.CreateFXForecastCurve(M3,M4,M5,M6,M7)</f>
+        <v>USDZARForwards.20:59:16-32</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="str">
         <f>"forecast"&amp;C15</f>
-        <v>forecastJIBAR3M</v>
+        <v>forecastZAR.JIBAR.3M</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D15" s="10" t="str">
         <f>B10</f>
-        <v>ZARDiscount.19:30:44-7</v>
+        <v>ZARDiscount.20:59:16-28</v>
       </c>
       <c r="E15" s="6" t="str">
         <f>_xll.QSA.CreateRateForecastCurveFromDiscount(B15,C15,D15)</f>
-        <v>forecastJIBAR3M.19:30:44-15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>forecastZAR.JIBAR.3M.20:59:16-35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="str">
         <f t="shared" ref="B16:B17" si="0">"forecast"&amp;C16</f>
-        <v>forecastJIBAR6M</v>
+        <v>forecastZAR.JIBAR.6M</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="10" t="str">
         <f>B10</f>
-        <v>ZARDiscount.19:30:44-7</v>
+        <v>ZARDiscount.20:59:16-28</v>
       </c>
       <c r="E16" s="6" t="str">
         <f>_xll.QSA.CreateRateForecastCurveFromDiscount(B16,C16,D16)</f>
-        <v>forecastJIBAR6M.19:30:44-14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>forecastZAR.JIBAR.6M.20:59:16-34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>forecastLIBOR3M</v>
+        <v>forecastUSD.LIBOR.3M</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="10" t="str">
         <f>H10</f>
-        <v>USDDiscountAndBasis.19:30:44-11</v>
+        <v>USDDiscountAndBasis.20:59:16-27</v>
       </c>
       <c r="E17" s="6" t="str">
         <f>_xll.QSA.CreateRateForecastCurveFromDiscount(B17,C17,D17)</f>
-        <v>forecastLIBOR3M.19:30:44-13</v>
+        <v>forecastUSD.LIBOR.3M.20:59:16-36</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1775,7 +1769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1783,49 +1777,49 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="10" t="str">
         <f>'Curves and Model'!B10</f>
-        <v>ZARDiscount.19:30:44-7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+        <v>ZARDiscount.20:59:16-28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="10" t="str">
         <f>E15</f>
-        <v>forecastJIBAR3M.19:30:44-15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+        <v>forecastZAR.JIBAR.3M.20:59:16-35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="str">
         <f>E16</f>
-        <v>forecastJIBAR6M.19:30:44-14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+        <v>forecastZAR.JIBAR.6M.20:59:16-34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="str">
         <f>E17</f>
-        <v>forecastLIBOR3M.19:30:44-13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+        <v>forecastUSD.LIBOR.3M.20:59:16-36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="10" t="str">
         <f>'Curves and Model'!L10</f>
-        <v>USDZARForwards.19:30:44-12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+        <v>USDZARForwards.20:59:16-32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="str">
         <f>_xll.QSA.CreateCurveModel(C21,C22,C23:C25,C26)</f>
-        <v>curveModel.19:30:44-18</v>
+        <v>curveModel.20:59:16-38</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelExamples/GeneralSwap.xlsx
+++ b/ExcelExamples/GeneralSwap.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a2c6574b59b6aaf/Documents/GitHub/Riskworx/QuantSA/ExcelExamples/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_2D44701FB6592FEA931626AF542D9FB25532AD47" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="10296" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="610" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fixed CCIRS" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,18 @@
     <sheet name="FX Forward or FX Swap" sheetId="4" r:id="rId3"/>
     <sheet name="Curves and Model" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" calcOnSave="0"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -175,7 +192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
@@ -299,7 +316,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -307,6 +324,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -355,7 +375,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,9 +408,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,6 +460,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -598,31 +652,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -650,7 +704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -676,7 +730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>42727</v>
       </c>
@@ -704,7 +758,7 @@
         <v>0.24931506849315069</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B14" si="0">EDATE(B7,3)</f>
         <v>42817</v>
@@ -734,7 +788,7 @@
         <v>0.24657534246575341</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>42909</v>
@@ -764,7 +818,7 @@
         <v>0.25205479452054796</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>43001</v>
@@ -794,7 +848,7 @@
         <v>0.25205479452054796</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>43092</v>
@@ -824,7 +878,7 @@
         <v>0.24931506849315069</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>43182</v>
@@ -854,7 +908,7 @@
         <v>0.24657534246575341</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>43274</v>
@@ -884,7 +938,7 @@
         <v>0.25205479452054796</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>43366</v>
@@ -914,22 +968,22 @@
         <v>0.25205479452054796</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="str">
-        <f>_xll.QSA.CreateFixedLeg(C3,C4,B7:B14,C7:C14,D7:D14,E7:E14)</f>
-        <v>fixedLegZAR0001.20:59:16-33</v>
-      </c>
-      <c r="G16" s="6" t="str">
-        <f>_xll.QSA.CreateFixedLeg(H3,H4,G7:G14,H7:H14,I7:I14,J7:J14)</f>
-        <v>fixedLegUSD0001.20:59:16-37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="6" t="e">
+        <f ca="1">_xll.QSA.CreateFixedLeg(C3,C4,B7:B14,C7:C14,D7:D14,E7:E14)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G16" s="6" t="e">
+        <f ca="1">_xll.QSA.CreateFixedLeg(H3,H4,G7:G14,H7:H14,I7:I14,J7:J14)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B20" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
@@ -937,22 +991,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="10" t="str">
-        <f>B16</f>
-        <v>fixedLegZAR0001.20:59:16-33</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="C23" s="10" t="str">
-        <f>G16</f>
-        <v>fixedLegUSD0001.20:59:16-37</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="e">
+        <f ca="1">B16</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="10" t="e">
+        <f ca="1">G16</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
@@ -960,28 +1014,28 @@
         <v>42636</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="10" t="str">
-        <f>'Curves and Model'!B28</f>
-        <v>curveModel.20:59:16-38</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="str">
-        <f>_xll.QSA.Value(C21,C22:C23,C24,C25)</f>
-        <v>ccirsValueResults.20:59:16-41</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="e">
+        <f ca="1">'Curves and Model'!B28</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="6" t="e">
+        <f ca="1">_xll.QSA.Value(C21,C22:C23,C24,C25)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="12">
-        <f>_xll.QSA.GetResults(B27,"value")</f>
-        <v>-179484.52557973986</v>
+      <c r="C29" s="12" t="e">
+        <f ca="1">_xll.QSA.GetResults(B27,"value")</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -990,20 +1044,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="7" max="7" width="5.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1071,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1031,7 +1085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1040,7 +1094,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1063,7 +1117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>42639</v>
       </c>
@@ -1089,7 +1143,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <f>C7</f>
         <v>42730</v>
@@ -1117,7 +1171,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <f t="shared" ref="B9:B14" si="3">C8</f>
         <v>42820</v>
@@ -1145,7 +1199,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <f t="shared" si="3"/>
         <v>42912</v>
@@ -1173,7 +1227,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <f t="shared" si="3"/>
         <v>43004</v>
@@ -1201,7 +1255,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <f t="shared" si="3"/>
         <v>43095</v>
@@ -1229,7 +1283,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <f t="shared" si="3"/>
         <v>43185</v>
@@ -1257,7 +1311,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <f t="shared" si="3"/>
         <v>43277</v>
@@ -1285,11 +1339,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" ht="21" x14ac:dyDescent="0.5">
       <c r="B16" s="9" t="s">
         <v>37</v>
       </c>
@@ -1297,22 +1351,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="str">
-        <f>_xll.QSA.CreateFloatLeg(C2,C3,C4,B7:B14,C7:C14,D7:D14,E7:E14,F7:F14)</f>
-        <v>floatLeg.20:59:16-31</v>
-      </c>
-      <c r="I17" s="6" t="str">
-        <f>_xll.QSA.CreateFixedLeg(I2,I3,C7:C14,H7:H14,I7:I14,F7:F14)</f>
-        <v>fixedLeg.20:59:16-29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="6" t="e">
+        <f ca="1">_xll.QSA.CreateFloatLeg(C2,C3,C4,B7:B14,C7:C14,D7:D14,E7:E14,F7:F14)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I17" s="6" t="e">
+        <f ca="1">_xll.QSA.CreateFixedLeg(I2,I3,C7:C14,H7:H14,I7:I14,F7:F14)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="21" x14ac:dyDescent="0.5">
       <c r="B20" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1320,22 +1374,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="10" t="str">
-        <f>B17</f>
-        <v>floatLeg.20:59:16-31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C23" s="10" t="str">
-        <f>I17</f>
-        <v>fixedLeg.20:59:16-29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="e">
+        <f ca="1">B17</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C23" s="10" t="e">
+        <f ca="1">I17</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1343,28 +1397,28 @@
         <v>42636</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="10" t="str">
-        <f>'Curves and Model'!B28</f>
-        <v>curveModel.20:59:16-38</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="str">
-        <f>_xll.QSA.Value(C21,C22:C23,C24,C25)</f>
-        <v>amortSwapValueResults.20:59:16-39</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="e">
+        <f ca="1">'Curves and Model'!B28</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="6" t="e">
+        <f ca="1">_xll.QSA.Value(C21,C22:C23,C24,C25)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="12">
-        <f>_xll.QSA.GetResults(B27,"value")</f>
-        <v>3341.7881313855064</v>
+      <c r="C29" s="12" t="e">
+        <f ca="1">_xll.QSA.GetResults(B27,"value")</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -1373,21 +1427,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1449,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1406,7 +1460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>42636</v>
       </c>
@@ -1417,7 +1471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>42636</v>
       </c>
@@ -1428,7 +1482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>43001</v>
       </c>
@@ -1439,7 +1493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>43001</v>
       </c>
@@ -1450,23 +1504,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" ht="21" x14ac:dyDescent="0.5">
       <c r="B11" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="str">
-        <f>_xll.QSA.CreateCashLeg(C2,B5:B8,C5:C8,D5:D8)</f>
-        <v>fxSwap.20:59:16-26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="6" t="e">
+        <f ca="1">_xll.QSA.CreateCashLeg(C2,B5:B8,C5:C8,D5:D8)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.5">
       <c r="B14" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1474,16 +1528,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="10" t="str">
-        <f>B12</f>
-        <v>fxSwap.20:59:16-26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="e">
+        <f ca="1">B12</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1491,28 +1545,28 @@
         <v>42636</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="10" t="str">
-        <f>'Curves and Model'!B28</f>
-        <v>curveModel.20:59:16-38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="str">
-        <f>_xll.QSA.Value(C15,C16,C18,C19)</f>
-        <v>fxSwapValueResults.20:59:16-40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="e">
+        <f ca="1">'Curves and Model'!B28</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="6" t="e">
+        <f ca="1">_xll.QSA.Value(C15,C16,C18,C19)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="12">
-        <f>_xll.QSA.GetResults(B21,"value")</f>
-        <v>341.00622510910034</v>
+      <c r="C23" s="12" t="e">
+        <f ca="1">_xll.QSA.GetResults(B21,"value")</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -1521,31 +1575,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.5">
       <c r="L2" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1597,7 +1651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="L5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1605,7 +1659,7 @@
         <v>13.66</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1627,12 +1681,12 @@
       <c r="L6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="10" t="str">
-        <f>H10</f>
-        <v>USDDiscountAndBasis.20:59:16-27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="M6" s="10" t="e">
+        <f ca="1">H10</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>42636</v>
       </c>
@@ -1654,12 +1708,12 @@
       <c r="L7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="10" t="str">
-        <f>E10</f>
-        <v>ZARBasis.20:59:16-30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="M7" s="10" t="e">
+        <f ca="1">E10</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>46288</v>
       </c>
@@ -1679,30 +1733,30 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="str">
-        <f>_xll.QSA.CreateDatesAndRatesCurve(C3,B7:B8,C7:C8,C4)</f>
-        <v>ZARDiscount.20:59:16-28</v>
-      </c>
-      <c r="E10" s="6" t="str">
-        <f>_xll.QSA.CreateDatesAndRatesCurve(F3,E7:E8,F7:F8,F4)</f>
-        <v>ZARBasis.20:59:16-30</v>
-      </c>
-      <c r="H10" s="6" t="str">
-        <f>_xll.QSA.CreateDatesAndRatesCurve(I3,H7:H8,I7:I8,I4)</f>
-        <v>USDDiscountAndBasis.20:59:16-27</v>
-      </c>
-      <c r="L10" s="6" t="str">
-        <f>_xll.QSA.CreateFXForecastCurve(M3,M4,M5,M6,M7)</f>
-        <v>USDZARForwards.20:59:16-32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="e">
+        <f ca="1">_xll.QSA.CreateDatesAndRatesCurve(C3,B7:B8,C7:C8,C4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="6" t="e">
+        <f ca="1">_xll.QSA.CreateDatesAndRatesCurve(F3,E7:E8,F7:F8,F4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H10" s="6" t="e">
+        <f ca="1">_xll.QSA.CreateDatesAndRatesCurve(I3,H7:H8,I7:I8,I4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L10" s="6" t="e">
+        <f ca="1">_xll.QSA.CreateFXForecastCurve(M3,M4,M5,M6,M7)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="21" x14ac:dyDescent="0.5">
       <c r="B13" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1713,7 +1767,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="str">
         <f>"forecast"&amp;C15</f>
         <v>forecastZAR.JIBAR.3M</v>
@@ -1721,16 +1775,16 @@
       <c r="C15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="10" t="str">
-        <f>B10</f>
-        <v>ZARDiscount.20:59:16-28</v>
-      </c>
-      <c r="E15" s="6" t="str">
-        <f>_xll.QSA.CreateRateForecastCurveFromDiscount(B15,C15,D15)</f>
-        <v>forecastZAR.JIBAR.3M.20:59:16-35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D15" s="10" t="e">
+        <f ca="1">B10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E15" s="6" t="e">
+        <f ca="1">_xll.QSA.CreateRateForecastCurveFromDiscount(B15,C15,D15)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="str">
         <f t="shared" ref="B16:B17" si="0">"forecast"&amp;C16</f>
         <v>forecastZAR.JIBAR.6M</v>
@@ -1738,16 +1792,16 @@
       <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="10" t="str">
-        <f>B10</f>
-        <v>ZARDiscount.20:59:16-28</v>
-      </c>
-      <c r="E16" s="6" t="str">
-        <f>_xll.QSA.CreateRateForecastCurveFromDiscount(B16,C16,D16)</f>
-        <v>forecastZAR.JIBAR.6M.20:59:16-34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D16" s="10" t="e">
+        <f ca="1">B10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E16" s="6" t="e">
+        <f ca="1">_xll.QSA.CreateRateForecastCurveFromDiscount(B16,C16,D16)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>forecastUSD.LIBOR.3M</v>
@@ -1755,21 +1809,21 @@
       <c r="C17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="10" t="str">
-        <f>H10</f>
-        <v>USDDiscountAndBasis.20:59:16-27</v>
-      </c>
-      <c r="E17" s="6" t="str">
-        <f>_xll.QSA.CreateRateForecastCurveFromDiscount(B17,C17,D17)</f>
-        <v>forecastUSD.LIBOR.3M.20:59:16-36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="D17" s="10" t="e">
+        <f ca="1">H10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E17" s="6" t="e">
+        <f ca="1">_xll.QSA.CreateRateForecastCurveFromDiscount(B17,C17,D17)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.5">
       <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1777,49 +1831,49 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="10" t="str">
-        <f>'Curves and Model'!B10</f>
-        <v>ZARDiscount.20:59:16-28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="e">
+        <f ca="1">'Curves and Model'!B10</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="10" t="str">
-        <f>E15</f>
-        <v>forecastZAR.JIBAR.3M.20:59:16-35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C24" s="10" t="str">
-        <f>E16</f>
-        <v>forecastZAR.JIBAR.6M.20:59:16-34</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C25" s="10" t="str">
-        <f>E17</f>
-        <v>forecastUSD.LIBOR.3M.20:59:16-36</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="e">
+        <f ca="1">E15</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C24" s="10" t="e">
+        <f ca="1">E16</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C25" s="10" t="e">
+        <f ca="1">E17</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="10" t="str">
-        <f>'Curves and Model'!L10</f>
-        <v>USDZARForwards.20:59:16-32</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="str">
-        <f>_xll.QSA.CreateCurveModel(C21,C22,C23:C25,C26)</f>
-        <v>curveModel.20:59:16-38</v>
+      <c r="C26" s="10" t="e">
+        <f ca="1">'Curves and Model'!L10</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="6" t="e">
+        <f ca="1">_xll.QSA.CreateCurveModel(C21,C22,C23:C25,C26)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
